--- a/survey_resources/washingtoncommons/washingtoncommons-trip-survey.xlsx
+++ b/survey_resources/washingtoncommons/washingtoncommons-trip-survey.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awheelis/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2356C02-E6D0-F243-A053-85D18DB0B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-3660" yWindow="-20040" windowWidth="25640" windowHeight="13060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -153,9 +159,6 @@
     <t>Transit (bus or train)</t>
   </si>
   <si>
-    <t>option_12</t>
-  </si>
-  <si>
     <t>On-demand transit (shuttle service)</t>
   </si>
   <si>
@@ -186,9 +189,6 @@
     <t>fy8ha33</t>
   </si>
   <si>
-    <t>option_4</t>
-  </si>
-  <si>
     <t>Myself</t>
   </si>
   <si>
@@ -208,13 +208,19 @@
   </si>
   <si>
     <t xml:space="preserve">Someone else </t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>myself</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,13 +257,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +309,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -329,6 +343,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,9 +378,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,14 +554,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="40.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -570,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -578,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -592,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -606,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -629,14 +650,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="40.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -650,7 +676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -661,7 +687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -672,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -683,7 +709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -694,7 +720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -705,7 +731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -716,7 +742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -727,7 +753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -738,7 +764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -749,7 +775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -760,7 +786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -774,124 +800,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -903,12 +929,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
